--- a/Lab_02/dane.xlsx
+++ b/Lab_02/dane.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dawid\Python\Podstawy_ekonometrii\Lab_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dawid\Python\Basics_of_econometrics\Lab_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6709DF3-F40D-4290-AEE3-C181D13C7CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4DBF1C-085E-4411-97EB-6178DC105A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,17 +69,8 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,13 +87,8 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,29 +126,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
@@ -172,12 +142,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Dane wejściowe" xfId="1" builtinId="20"/>
     <cellStyle name="Dane wyjściowe" xfId="2" builtinId="21"/>
-    <cellStyle name="Komórka zaznaczona" xfId="3" builtinId="23"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,10 +527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EACE26C-E028-4607-B831-96B51C6F54DA}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -663,7 +631,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>210</v>
       </c>
@@ -671,17 +639,6 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5">
-        <f>AVERAGE(A2:A13)</f>
-        <v>150</v>
-      </c>
-      <c r="B14" s="5">
-        <f>AVERAGE(B2:B13)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
